--- a/storage/FWRI1.xlsx
+++ b/storage/FWRI1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cesu\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86021483-230F-414F-99B2-4DD0997867B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC66E269-A549-40F3-919E-20B0D362837B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{76154FC2-4AB5-4F8C-9B6F-69F6CFB7390F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76154FC2-4AB5-4F8C-9B6F-69F6CFB7390F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,35 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Injury Registry Form: Fax (046) 416-4942, SMS : 09284895496, email address: pesucavite@gmail.com</t>
   </si>
   <si>
-    <t>Name (Family Name, First Name, Middle Initial)</t>
-  </si>
-  <si>
     <t>Age/Sex</t>
   </si>
   <si>
-    <t>Date (mm/dd)</t>
-  </si>
-  <si>
-    <t>Date (mm/dd) Time of Consult</t>
-  </si>
-  <si>
-    <t>Diagnosis to include Nature and Site</t>
-  </si>
-  <si>
-    <t>Time of Injury</t>
-  </si>
-  <si>
     <t>Place of Injury</t>
   </si>
   <si>
-    <t>Residence (House No. Street, Bgy., Mun/City)</t>
-  </si>
-  <si>
     <t>Involvement</t>
   </si>
   <si>
@@ -77,9 +59,6 @@
     <t>Liquor Intoxication</t>
   </si>
   <si>
-    <t>Given</t>
-  </si>
-  <si>
     <t>Disposition</t>
   </si>
   <si>
@@ -129,6 +108,45 @@
   </si>
   <si>
     <t>KONTRA PAPUTOK 2023-2024 FIREWORKS-RELATED INJURY SURVEILLANCE FORM</t>
+  </si>
+  <si>
+    <t>Residence (House No. Street)</t>
+  </si>
+  <si>
+    <t>Barangay</t>
+  </si>
+  <si>
+    <t>Date and Time of Injury</t>
+  </si>
+  <si>
+    <t>Name of Hospital/Facility</t>
+  </si>
+  <si>
+    <t>Name of Patient (Family Name, First Name, Middle Initial)</t>
+  </si>
+  <si>
+    <t>Municipal/City</t>
+  </si>
+  <si>
+    <t>Injury occurred at the City of General Trias</t>
+  </si>
+  <si>
+    <t>Date and Time of Consultation</t>
+  </si>
+  <si>
+    <t>Place of Injury Same as Patient Address</t>
+  </si>
+  <si>
+    <t>Complete Diagnosis</t>
+  </si>
+  <si>
+    <t>Anatomical Location</t>
+  </si>
+  <si>
+    <t>Treatment Given</t>
+  </si>
+  <si>
+    <t>Aware of Any Health Education Materials Regarding Fireworks</t>
   </si>
 </sst>
 </file>
@@ -290,11 +308,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,6 +342,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,33 +391,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,9 +409,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -422,7 +449,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -528,7 +555,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -670,7 +697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,161 +705,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E2AB8A-9591-4B95-8FE2-C7938384E68B}">
-  <dimension ref="B1:M104"/>
+  <dimension ref="B1:U104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M4"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="54.44140625" customWidth="1"/>
-    <col min="5" max="5" width="42.77734375" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" customWidth="1"/>
-    <col min="13" max="13" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="8" width="54.42578125" customWidth="1"/>
+    <col min="9" max="12" width="42.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" customWidth="1"/>
+    <col min="20" max="20" width="26.5703125" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="2:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="I5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-    </row>
-    <row r="5" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="M5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="N5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="5" t="s">
+      <c r="Q5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="6" t="s">
+      <c r="S5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U5" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -845,8 +931,16 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -859,8 +953,16 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -873,8 +975,16 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -887,8 +997,16 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -901,8 +1019,16 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -915,8 +1041,16 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -929,8 +1063,16 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -943,8 +1085,16 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -957,8 +1107,16 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -971,8 +1129,16 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -985,8 +1151,16 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -999,8 +1173,16 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1013,8 +1195,16 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1027,8 +1217,16 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1041,8 +1239,16 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1055,8 +1261,16 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1069,8 +1283,16 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1083,8 +1305,16 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1097,8 +1327,16 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1111,8 +1349,16 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1125,8 +1371,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1139,8 +1393,16 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1153,8 +1415,16 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1167,8 +1437,16 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1181,8 +1459,16 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1195,8 +1481,16 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1209,8 +1503,16 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1223,8 +1525,16 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1237,8 +1547,16 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1251,8 +1569,16 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1265,8 +1591,16 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1279,8 +1613,16 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1293,8 +1635,16 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1307,8 +1657,16 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1321,8 +1679,16 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1335,8 +1701,16 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1349,8 +1723,16 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1363,8 +1745,16 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1377,8 +1767,16 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1391,8 +1789,16 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1405,8 +1811,16 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1419,8 +1833,16 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1433,8 +1855,16 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1447,8 +1877,16 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1461,8 +1899,16 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1475,8 +1921,16 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1489,8 +1943,16 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1503,8 +1965,16 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1517,8 +1987,16 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1531,8 +2009,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1545,8 +2031,16 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1559,8 +2053,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1573,8 +2075,16 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1587,8 +2097,16 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1601,8 +2119,16 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1615,8 +2141,16 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1629,8 +2163,16 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1643,8 +2185,16 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1657,8 +2207,16 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1671,8 +2229,16 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1685,8 +2251,16 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1699,8 +2273,16 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1713,8 +2295,16 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1727,8 +2317,16 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1741,8 +2339,16 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1755,8 +2361,16 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1769,8 +2383,16 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1783,8 +2405,16 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1797,8 +2427,16 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1811,8 +2449,16 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -1825,8 +2471,16 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -1839,8 +2493,16 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1853,8 +2515,16 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1867,8 +2537,16 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+    </row>
+    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1881,8 +2559,16 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+    </row>
+    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -1895,8 +2581,16 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+    </row>
+    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1909,8 +2603,16 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+    </row>
+    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -1923,8 +2625,16 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+    </row>
+    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -1937,8 +2647,16 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+    </row>
+    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -1951,8 +2669,16 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+    </row>
+    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -1965,8 +2691,16 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+    </row>
+    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -1979,8 +2713,16 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+    </row>
+    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -1993,8 +2735,16 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+    </row>
+    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2007,8 +2757,16 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+    </row>
+    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2021,8 +2779,16 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+    </row>
+    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2035,8 +2801,16 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+    </row>
+    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2049,8 +2823,16 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+    </row>
+    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2063,8 +2845,16 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+    </row>
+    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2077,8 +2867,16 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+    </row>
+    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2091,8 +2889,16 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+    </row>
+    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2105,8 +2911,16 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2119,8 +2933,16 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2133,8 +2955,16 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2147,105 +2977,137 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B102" s="2" t="s">
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+    </row>
+    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="29"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O102" s="23"/>
+      <c r="P102" s="23"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S102" s="21"/>
+      <c r="T102" s="21"/>
+    </row>
+    <row r="103" spans="2:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="27"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="17"/>
-      <c r="E102" s="9" t="s">
+      <c r="O103" s="24"/>
+      <c r="P103" s="24"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-    </row>
-    <row r="103" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="3" t="s">
+      <c r="S103" s="22"/>
+      <c r="T103" s="22"/>
+    </row>
+    <row r="104" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="15"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D103" s="15"/>
-      <c r="E103" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-    </row>
-    <row r="104" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" s="25"/>
-      <c r="E104" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="22"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="22"/>
+      <c r="S104" s="22"/>
+      <c r="T104" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B4:M4"/>
+  <mergeCells count="35">
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D1:T1"/>
+    <mergeCell ref="D2:T2"/>
+    <mergeCell ref="D3:T3"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="R103:T104"/>
+    <mergeCell ref="N102:P102"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="N104:P104"/>
+    <mergeCell ref="I102:M102"/>
+    <mergeCell ref="I103:M103"/>
+    <mergeCell ref="I104:M104"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="D4:T4"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="F5:F7"/>
     <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="K103:M104"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="H5:H7"/>
     <mergeCell ref="K5:K7"/>
+    <mergeCell ref="Q5:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/storage/FWRI1.xlsx
+++ b/storage/FWRI1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cesu\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC66E269-A549-40F3-919E-20B0D362837B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AFE0E4-4D57-44BC-BDFA-833732A7A8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76154FC2-4AB5-4F8C-9B6F-69F6CFB7390F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Injury Registry Form: Fax (046) 416-4942, SMS : 09284895496, email address: pesucavite@gmail.com</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Aware of Any Health Education Materials Regarding Fireworks</t>
+  </si>
+  <si>
+    <t>Specify Location of Injury</t>
   </si>
 </sst>
 </file>
@@ -331,9 +334,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,12 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -390,6 +384,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E2AB8A-9591-4B95-8FE2-C7938384E68B}">
-  <dimension ref="B1:U104"/>
+  <dimension ref="B1:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,207 +721,216 @@
     <col min="4" max="4" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="8" width="54.42578125" customWidth="1"/>
-    <col min="9" max="12" width="42.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.140625" customWidth="1"/>
-    <col min="20" max="20" width="26.5703125" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="42.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" customWidth="1"/>
+    <col min="21" max="21" width="26.5703125" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D1" s="19" t="s">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-    </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D2" s="19" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D3" s="20" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-    </row>
-    <row r="5" spans="2:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+    </row>
+    <row r="5" spans="2:22" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="P5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="Q5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="R5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="S5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="T5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="U5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="V5" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -939,8 +951,9 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -961,8 +974,9 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -983,8 +997,9 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1005,8 +1020,9 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1027,8 +1043,9 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1049,8 +1066,9 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1071,8 +1089,9 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1093,8 +1112,9 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1115,8 +1135,9 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1137,8 +1158,9 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1159,8 +1181,9 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1181,8 +1204,9 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1203,8 +1227,9 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1225,8 +1250,9 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1247,8 +1273,9 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1269,8 +1296,9 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1291,8 +1319,9 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1313,8 +1342,9 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1335,8 +1365,9 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1357,8 +1388,9 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1379,8 +1411,9 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1401,8 +1434,9 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1423,8 +1457,9 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1445,8 +1480,9 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1467,8 +1503,9 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1489,8 +1526,9 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1511,8 +1549,9 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1533,8 +1572,9 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1555,8 +1595,9 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1577,8 +1618,9 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1599,8 +1641,9 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1621,8 +1664,9 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1643,8 +1687,9 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1665,8 +1710,9 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1687,8 +1733,9 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1709,8 +1756,9 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1731,8 +1779,9 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1753,8 +1802,9 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1775,8 +1825,9 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1797,8 +1848,9 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1819,8 +1871,9 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1841,8 +1894,9 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V49" s="1"/>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1863,8 +1917,9 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V50" s="1"/>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1885,8 +1940,9 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1907,8 +1963,9 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
-    </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1929,8 +1986,9 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
-    </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1951,8 +2009,9 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-    </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V54" s="1"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1973,8 +2032,9 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
-    </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V55" s="1"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1995,8 +2055,9 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-    </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V56" s="1"/>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2017,8 +2078,9 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-    </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V57" s="1"/>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2039,8 +2101,9 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
-    </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V58" s="1"/>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2061,8 +2124,9 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
-    </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V59" s="1"/>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2083,8 +2147,9 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V60" s="1"/>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2105,8 +2170,9 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-    </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V61" s="1"/>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2127,8 +2193,9 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
-    </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V62" s="1"/>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2149,8 +2216,9 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
-    </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V63" s="1"/>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2171,8 +2239,9 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V64" s="1"/>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2193,8 +2262,9 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V65" s="1"/>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2215,8 +2285,9 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2237,8 +2308,9 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V67" s="1"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2259,8 +2331,9 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2281,8 +2354,9 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2303,8 +2377,9 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V70" s="1"/>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2325,8 +2400,9 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V71" s="1"/>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2347,8 +2423,9 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V72" s="1"/>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2369,8 +2446,9 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V73" s="1"/>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2391,8 +2469,9 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V74" s="1"/>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2413,8 +2492,9 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V75" s="1"/>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2435,8 +2515,9 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V76" s="1"/>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2457,8 +2538,9 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
-    </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V77" s="1"/>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2479,8 +2561,9 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V78" s="1"/>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2501,8 +2584,9 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
-    </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V79" s="1"/>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2523,8 +2607,9 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
-    </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V80" s="1"/>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2545,8 +2630,9 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
-    </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V81" s="1"/>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2567,8 +2653,9 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
-    </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V82" s="1"/>
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2589,8 +2676,9 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
-    </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V83" s="1"/>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2611,8 +2699,9 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
-    </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V84" s="1"/>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2633,8 +2722,9 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
-    </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V85" s="1"/>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2655,8 +2745,9 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
-    </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V86" s="1"/>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2677,8 +2768,9 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
-    </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V87" s="1"/>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2699,8 +2791,9 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
-    </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V88" s="1"/>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2721,8 +2814,9 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
-    </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V89" s="1"/>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2743,8 +2837,9 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
-    </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V90" s="1"/>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2765,8 +2860,9 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
-    </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V91" s="1"/>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2787,8 +2883,9 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
-    </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V92" s="1"/>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2809,8 +2906,9 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
-    </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V93" s="1"/>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2831,8 +2929,9 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
-    </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V94" s="1"/>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2853,8 +2952,9 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
-    </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V95" s="1"/>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2875,8 +2975,9 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
-    </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V96" s="1"/>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2897,8 +2998,9 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
-    </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V97" s="1"/>
+    </row>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2919,8 +3021,9 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
-    </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V98" s="1"/>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2941,8 +3044,9 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
-    </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V99" s="1"/>
+    </row>
+    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2963,8 +3067,9 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
-    </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V100" s="1"/>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2985,129 +3090,134 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
-    </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V101" s="1"/>
+    </row>
+    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="28" t="s">
+      <c r="E102" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="29"/>
+      <c r="F102" s="26"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
-      <c r="I102" s="21" t="s">
+      <c r="I102" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J102" s="21"/>
-      <c r="K102" s="21"/>
-      <c r="L102" s="21"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="23" t="s">
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="O102" s="23"/>
-      <c r="P102" s="23"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="21" t="s">
+      <c r="P102" s="20"/>
+      <c r="Q102" s="20"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="S102" s="21"/>
-      <c r="T102" s="21"/>
-    </row>
-    <row r="103" spans="2:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T102" s="18"/>
+      <c r="U102" s="18"/>
+    </row>
+    <row r="103" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D103" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="26" t="s">
+      <c r="E103" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F103" s="27"/>
+      <c r="F103" s="24"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
-      <c r="I103" s="24" t="s">
+      <c r="I103" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J103" s="24"/>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="24" t="s">
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="O103" s="24"/>
-      <c r="P103" s="24"/>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="22" t="s">
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="S103" s="22"/>
-      <c r="T103" s="22"/>
-    </row>
-    <row r="104" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T103" s="19"/>
+      <c r="U103" s="19"/>
+    </row>
+    <row r="104" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D104" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="15"/>
+      <c r="F104" s="29"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
-      <c r="I104" s="25" t="s">
+      <c r="I104" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J104" s="25"/>
-      <c r="K104" s="25"/>
-      <c r="L104" s="25"/>
-      <c r="M104" s="25"/>
-      <c r="N104" s="22" t="s">
+      <c r="J104" s="22"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="22"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="O104" s="22"/>
-      <c r="P104" s="22"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="22"/>
-      <c r="S104" s="22"/>
-      <c r="T104" s="22"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="19"/>
+      <c r="T104" s="19"/>
+      <c r="U104" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="D4:U4"/>
+    <mergeCell ref="T5:T7"/>
     <mergeCell ref="U5:U7"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="D3:U3"/>
+    <mergeCell ref="S102:U102"/>
+    <mergeCell ref="S103:U104"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="O103:Q103"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="I102:N102"/>
+    <mergeCell ref="I103:N103"/>
+    <mergeCell ref="I104:N104"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="V5:V7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D1:T1"/>
-    <mergeCell ref="D2:T2"/>
-    <mergeCell ref="D3:T3"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="R103:T104"/>
-    <mergeCell ref="N102:P102"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="N104:P104"/>
-    <mergeCell ref="I102:M102"/>
-    <mergeCell ref="I103:M103"/>
-    <mergeCell ref="I104:M104"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="D4:T4"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="Q5:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
